--- a/tests/data/output/一级测试用例-12001_result.xlsx
+++ b/tests/data/output/一级测试用例-12001_result.xlsx
@@ -478,16 +478,16 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"伏利","id_card_no":"341021195408243852","phone":"18780142384"}</t>
+          <t>{"user_name":"红云","id_card_no":"330703197111148549","phone":"15181747158"}</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"卫霞","id_card_no":"152522195511152122","phone":"18562582462"}</t>
+          <t>{"user_name":"夹岩","id_card_no":"41162319650419522X","phone":"14509579416"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-12001_result.xlsx
+++ b/tests/data/output/一级测试用例-12001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,60 +369,55 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>用例编号</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>用例编号</t>
+          <t>测试模块</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>测试模块</t>
+          <t>用例标题</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>用例标题</t>
+          <t>table_main</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>table_main</t>
+          <t>table_main_subA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_main_subA</t>
+          <t>table_main_subB</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>table_main_subB</t>
+          <t>预期测试结果</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>预期测试结果</t>
+          <t>main_query_key</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>main_query_key</t>
+          <t>实际测试结果</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>实际测试结果</t>
+          <t>是否通过</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>是否通过</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -432,62 +427,53 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>12001</v>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>anti_idno_consume_black</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>anti_idno_consume_black</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业信用消费黑名单'</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-info_anti_fraud_rule.anti_fraud_rule_id;
-info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业信用消费黑名单';
-info_anti_fraud_rule.rule_name[0-1]='身份证比对信贷行业P2P黑名单'</t>
+          <t>anti_idno_consume_black=1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>anti_idno_consume_black=1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"user_name":"施超","id_card_no":"53030119420508731X","phone":"13682669691"}</t>
+          <t>{"user_name":"童芳","id_card_no":"420501193402190894","phone":"15303551702"}</t>
         </is>
       </c>
     </row>
@@ -495,66 +481,1865 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>12001</v>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>anti_idno_consume_black</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>anti_idno_consume_black</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]='test001';
-info_anti_fraud_strategy.strategy_mode[0]='test001-001';
-info_anti_fraud_strategy.strategy_name[1]='test002';
-info_anti_fraud_strategy.strategy_mode[1]='test002-001'</t>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-info_anti_fraud_rule.anti_fraud_rule_id;
-info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业信用消费黑名单';
-info_anti_fraud_rule.rule_name[0-1]='身份证比对信贷行业P2P黑名单';
-info_anti_fraud_rule.rule_name[1-0]='身份证比对信贷行业信用消费黑名单'</t>
+          <t>anti_idno_consume_black=0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>anti_idno_consume_black=1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>{"user_name":"叶磊","id_card_no":"540223198810318940","phone":"15807523873"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"user_name":"艾淑华","id_card_no":"460203198306149193","phone":"13449879514"}</t>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>anti_idno_P2P_black</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业P2P黑名单'</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>anti_idno_P2P_black=1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{"user_name":"俟畅","id_card_no":"623025195801314172","phone":"15995865599"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>anti_idno_P2P_black</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>anti_idno_P2P_black=0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>{"user_name":"汪辉","id_card_no":"542229196606109384","phone":"14748460723"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>anti_idno_lost_black</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业失联名单'</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>anti_idno_lost_black=1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{"user_name":"蓝琳","id_card_no":"150783197906078466","phone":"18674151930"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>anti_idno_lost_black</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>anti_idno_lost_black=0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>{"user_name":"后娜","id_card_no":"620522193608211389","phone":"18114948510"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>anti_idno_fraud_black</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业欺诈名单'</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>anti_idno_fraud_black=1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>{"user_name":"逯桂珍","id_card_no":"542125194206160519","phone":"15790219320"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>anti_idno_fraud_black</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>anti_idno_fraud_black=0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>{"user_name":"秋俊","id_card_no":"530381194212214278","phone":"13724892570"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>anti_idno_loan_black</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业信贷黑名单'</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>anti_idno_loan_black=1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>{"user_name":"武芳","id_card_no":"321311193112232506","phone":"18808763497"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>anti_idno_loan_black</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>anti_idno_loan_black=0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>{"user_name":"富畅","id_card_no":"451024198904046063","phone":"18901137032"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>anti_tel_industy_black</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号比对信贷行业黑名单'</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>anti_tel_industy_black=1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>{"user_name":"陶燕","id_card_no":"340711197208297104","phone":"13189917466"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>anti_tel_industy_black</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>anti_tel_industy_black=0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>{"user_name":"索丽华","id_card_no":"411725195711309668","phone":"15907738304"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>anti_tel_P2P_black</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号比对信贷行业P2P黑名单'</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>anti_tel_P2P_black=1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{"user_name":"扈超","id_card_no":"360104196606201262","phone":"15355118950"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>anti_tel_P2P_black</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>anti_tel_P2P_black=0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>{"user_name":"逯利","id_card_no":"450201198111301576","phone":"13713548620"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>anti_tel_lost_black</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号比对信贷行业失联黑名单'</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>anti_tel_lost_black=1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>{"user_name":"逯雷","id_card_no":"510322197801014039","phone":"18737464386"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>anti_tel_lost_black</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>anti_tel_lost_black=0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>{"user_name":"薄华","id_card_no":"320982194202167017","phone":"18587084617"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>anti_tel_fraud_black</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号比对信贷行业欺诈黑名单'</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>anti_tel_fraud_black=1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>{"user_name":"钮雪梅","id_card_no":"21012219580222968X","phone":"14546736730"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>anti_tel_fraud_black</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>anti_tel_fraud_black=0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>{"user_name":"南佳","id_card_no":"320400197512163435","phone":"18811138669"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>anti_tel_small_no</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号比对通信小号名单'</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>anti_tel_small_no=1</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>{"user_name":"萧建华","id_card_no":"513331195104069691","phone":"18530414181"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>anti_tel_small_no</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>anti_tel_small_no=0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>{"user_name":"师梅","id_card_no":"522731193506032983","phone":"15625976354"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>anti_idno_court_execu</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对法院执行名单'</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>anti_idno_court_execu=1</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>{"user_name":"爱兵","id_card_no":"420802196110163401","phone":"15014232840"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>anti_idno_court_execu</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>anti_idno_court_execu=0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>{"user_name":"宿桂芝","id_card_no":"610425200002210976","phone":"18936280105"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>anti_idno_court_closure</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对法院结案名单'</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>anti_idno_court_closure=1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>{"user_name":"廉倩","id_card_no":"130926199202024119","phone":"15342942039"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>anti_idno_court_closure</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>anti_idno_court_closure=0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>{"user_name":"晁凤英","id_card_no":"654221194512161605","phone":"13824841480"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>anti_idno_court_break_faith</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对法院失信名单'</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>anti_idno_court_break_faith=1</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>{"user_name":"田峰","id_card_no":"150429193409108270","phone":"15674135768"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>anti_idno_court_break_faith</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>anti_idno_court_break_faith=0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>{"user_name":"马淑英","id_card_no":"510115199302209303","phone":"15781125418"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>anti_idno_legal_break_faith</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对法人失信名单'</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>anti_idno_legal_break_faith=1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>{"user_name":"卓成","id_card_no":"632523197508058047","phone":"13063461858"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>anti_idno_legal_break_faith</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]=</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>anti_idno_legal_break_faith=0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>{"user_name":"诸丽华","id_card_no":"513429193404055827","phone":"13120426205"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>anti_idno_apply_1m</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]=='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>{"user_name":"雷龙","id_card_no":"360601193110147906","phone":"18235115049"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>anti_idno_apply_3m</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>{"user_name":"窦桂珍","id_card_no":"340123197002175649","phone":"14581129755"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>anti_tel_apply_1m</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号一个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>{"user_name":"甄晶","id_card_no":"430412196003141779","phone":"18728822036"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>anti_tel_apply_3m</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号三个月内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>{"user_name":"朱旭","id_card_no":"54222919421217626X","phone":"18777719686"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>anti_idno_apply_3d</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证三天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>{"user_name":"方文","id_card_no":"441427196104112798","phone":"15064232401"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>anti_idno_apply_7d</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>{"user_name":"郎小红","id_card_no":"430525193002221412","phone":"15315911310"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>anti_tel_apply_3d</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号三天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>{"user_name":"茅秀梅","id_card_no":"410502198212234224","phone":"15677672811"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>12001</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>anti_tel_apply_7d</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='手机号七天内多头申请过多';
+info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>{"user_name":"左龙","id_card_no":"510822198402149034","phone":"15167348567"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-12001_result.xlsx
+++ b/tests/data/output/一级测试用例-12001_result.xlsx
@@ -473,7 +473,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"童芳","id_card_no":"420501193402190894","phone":"15303551702"}</t>
+          <t>{"user_name":"魏波","id_card_no":"360200193705241813","phone":"15821415783"}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"叶磊","id_card_no":"540223198810318940","phone":"15807523873"}</t>
+          <t>{"user_name":"申艳","id_card_no":"331002195510119902","phone":"15609056565"}</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"俟畅","id_card_no":"623025195801314172","phone":"15995865599"}</t>
+          <t>{"user_name":"管海燕","id_card_no":"330902199308010264","phone":"13774885674"}</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"汪辉","id_card_no":"542229196606109384","phone":"14748460723"}</t>
+          <t>{"user_name":"施淑华","id_card_no":"440100197804236852","phone":"18931968408"}</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"蓝琳","id_card_no":"150783197906078466","phone":"18674151930"}</t>
+          <t>{"user_name":"娄桂芝","id_card_no":"130828199711029898","phone":"18019417580"}</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"后娜","id_card_no":"620522193608211389","phone":"18114948510"}</t>
+          <t>{"user_name":"姬淑英","id_card_no":"220602195112144228","phone":"15223702798"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"逯桂珍","id_card_no":"542125194206160519","phone":"15790219320"}</t>
+          <t>{"user_name":"强婷","id_card_no":"610100198602205122","phone":"14518897891"}</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"秋俊","id_card_no":"530381194212214278","phone":"13724892570"}</t>
+          <t>{"user_name":"许杰","id_card_no":"120200193208112063","phone":"15693396173"}</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"武芳","id_card_no":"321311193112232506","phone":"18808763497"}</t>
+          <t>{"user_name":"慕桂兰","id_card_no":"451227193608071755","phone":"15872366884"}</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"user_name":"富畅","id_card_no":"451024198904046063","phone":"18901137032"}</t>
+          <t>{"user_name":"叔兰英","id_card_no":"430801193302213006","phone":"18797682536"}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{"user_name":"陶燕","id_card_no":"340711197208297104","phone":"13189917466"}</t>
+          <t>{"user_name":"南建国","id_card_no":"360302194606109553","phone":"13919711588"}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{"user_name":"索丽华","id_card_no":"411725195711309668","phone":"15907738304"}</t>
+          <t>{"user_name":"跋淑兰","id_card_no":"321300199104036052","phone":"13765871382"}</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{"user_name":"扈超","id_card_no":"360104196606201262","phone":"15355118950"}</t>
+          <t>{"user_name":"别岩","id_card_no":"370700196402274936","phone":"13596740402"}</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{"user_name":"逯利","id_card_no":"450201198111301576","phone":"13713548620"}</t>
+          <t>{"user_name":"孙华","id_card_no":"410204198303118874","phone":"14539991485"}</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{"user_name":"逯雷","id_card_no":"510322197801014039","phone":"18737464386"}</t>
+          <t>{"user_name":"黎琴","id_card_no":"210701197005213749","phone":"13553510233"}</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{"user_name":"薄华","id_card_no":"320982194202167017","phone":"18587084617"}</t>
+          <t>{"user_name":"阳楠","id_card_no":"150421199309048852","phone":"13087433770"}</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{"user_name":"钮雪梅","id_card_no":"21012219580222968X","phone":"14546736730"}</t>
+          <t>{"user_name":"石楠","id_card_no":"622925195108281948","phone":"13940264940"}</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{"user_name":"南佳","id_card_no":"320400197512163435","phone":"18811138669"}</t>
+          <t>{"user_name":"庄旭","id_card_no":"350122195307115723","phone":"18530518129"}</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{"user_name":"萧建华","id_card_no":"513331195104069691","phone":"18530414181"}</t>
+          <t>{"user_name":"邱俊","id_card_no":"41070019651128700X","phone":"18880826719"}</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{"user_name":"师梅","id_card_no":"522731193506032983","phone":"15625976354"}</t>
+          <t>{"user_name":"夹丽华","id_card_no":"640100196504167341","phone":"13576534799"}</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{"user_name":"爱兵","id_card_no":"420802196110163401","phone":"15014232840"}</t>
+          <t>{"user_name":"惠桂兰","id_card_no":"450326194901044572","phone":"13325875299"}</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{"user_name":"宿桂芝","id_card_no":"610425200002210976","phone":"18936280105"}</t>
+          <t>{"user_name":"益俊","id_card_no":"330205194009046193","phone":"15981996883"}</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{"user_name":"廉倩","id_card_no":"130926199202024119","phone":"15342942039"}</t>
+          <t>{"user_name":"薄辉","id_card_no":"370404194410161704","phone":"15341350411"}</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{"user_name":"晁凤英","id_card_no":"654221194512161605","phone":"13824841480"}</t>
+          <t>{"user_name":"匡帅","id_card_no":"430623195112265282","phone":"14500679271"}</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{"user_name":"田峰","id_card_no":"150429193409108270","phone":"15674135768"}</t>
+          <t>{"user_name":"劳小红","id_card_no":"230126196510289764","phone":"13276051742"}</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{"user_name":"马淑英","id_card_no":"510115199302209303","phone":"15781125418"}</t>
+          <t>{"user_name":"易桂花","id_card_no":"34080019331005772X","phone":"13615908283"}</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{"user_name":"卓成","id_card_no":"632523197508058047","phone":"13063461858"}</t>
+          <t>{"user_name":"阙凯","id_card_no":"310109193309153689","phone":"15779164769"}</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>{"user_name":"诸丽华","id_card_no":"513429193404055827","phone":"13120426205"}</t>
+          <t>{"user_name":"台玉珍","id_card_no":"210727198710190763","phone":"18137288453"}</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{"user_name":"雷龙","id_card_no":"360601193110147906","phone":"18235115049"}</t>
+          <t>{"user_name":"冶秀荣","id_card_no":"532823194609110392","phone":"13560821886"}</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{"user_name":"窦桂珍","id_card_no":"340123197002175649","phone":"14581129755"}</t>
+          <t>{"user_name":"督丽娟","id_card_no":"520121196407086667","phone":"18774451754"}</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>{"user_name":"甄晶","id_card_no":"430412196003141779","phone":"18728822036"}</t>
+          <t>{"user_name":"侯秀梅","id_card_no":"450921194201126703","phone":"18748035903"}</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{"user_name":"朱旭","id_card_no":"54222919421217626X","phone":"18777719686"}</t>
+          <t>{"user_name":"桑桂荣","id_card_no":"22240619790925354X","phone":"13566308436"}</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{"user_name":"方文","id_card_no":"441427196104112798","phone":"15064232401"}</t>
+          <t>{"user_name":"东玲","id_card_no":"360926193509019299","phone":"15888109192"}</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>{"user_name":"郎小红","id_card_no":"430525193002221412","phone":"15315911310"}</t>
+          <t>{"user_name":"扶秀兰","id_card_no":"622924199205196739","phone":"18118656068"}</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>{"user_name":"茅秀梅","id_card_no":"410502198212234224","phone":"15677672811"}</t>
+          <t>{"user_name":"仰春梅","id_card_no":"510623199105176669","phone":"13458394048"}</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{"user_name":"左龙","id_card_no":"510822198402149034","phone":"15167348567"}</t>
+          <t>{"user_name":"于强","id_card_no":"21148119980420721X","phone":"14729246412"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-12001_result.xlsx
+++ b/tests/data/output/一级测试用例-12001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,55 +369,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>测试模块</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>用例标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>table_main</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>table_main_subA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>table_main_subB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>预期测试结果</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>main_query_key</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>实际测试结果</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>是否通过</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -427,53 +432,62 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>anti_idno_consume_black</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业信用消费黑名单'</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>anti_idno_consume_black=1</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"魏波","id_card_no":"360200193705241813","phone":"15821415783"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{"user_name":"慎淑兰","id_card_no":"130927199202177568","phone":"13300762512"}</t>
         </is>
       </c>
     </row>
@@ -481,53 +495,62 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>anti_idno_consume_black</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>anti_idno_consume_black=0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"申艳","id_card_no":"331002195510119902","phone":"15609056565"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"user_name":"公桂香","id_card_no":"130622195407263826","phone":"15821092797"}</t>
         </is>
       </c>
     </row>
@@ -535,53 +558,62 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>anti_idno_P2P_black</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业P2P黑名单'</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>anti_idno_P2P_black=1</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"管海燕","id_card_no":"330902199308010264","phone":"13774885674"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{"user_name":"容兰英","id_card_no":"420202198605058407","phone":"15513153210"}</t>
         </is>
       </c>
     </row>
@@ -589,53 +621,62 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>anti_idno_P2P_black</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>anti_idno_P2P_black=0</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"施淑华","id_card_no":"440100197804236852","phone":"18931968408"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{"user_name":"任利","id_card_no":"320585199503291628","phone":"18732570712"}</t>
         </is>
       </c>
     </row>
@@ -643,53 +684,62 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>anti_idno_lost_black</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业失联名单'</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>anti_idno_lost_black=1</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"娄桂芝","id_card_no":"130828199711029898","phone":"18019417580"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{"user_name":"太秀英","id_card_no":"14080119810913107X","phone":"18933049427"}</t>
         </is>
       </c>
     </row>
@@ -697,53 +747,62 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>anti_idno_lost_black</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>anti_idno_lost_black=0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"姬淑英","id_card_no":"220602195112144228","phone":"15223702798"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{"user_name":"郎阳","id_card_no":"340500194106047338","phone":"18799026115"}</t>
         </is>
       </c>
     </row>
@@ -751,53 +810,62 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>anti_idno_fraud_black</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业欺诈名单'</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>anti_idno_fraud_black=1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"强婷","id_card_no":"610100198602205122","phone":"14518897891"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{"user_name":"巴磊","id_card_no":"320601196206157304","phone":"18110497637"}</t>
         </is>
       </c>
     </row>
@@ -805,53 +873,62 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>anti_idno_fraud_black</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>anti_idno_fraud_black=0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"许杰","id_card_no":"120200193208112063","phone":"15693396173"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{"user_name":"戚丽丽","id_card_no":"230101199309215743","phone":"13478747985"}</t>
         </is>
       </c>
     </row>
@@ -859,53 +936,62 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>anti_idno_loan_black</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证比对信贷行业信贷黑名单'</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>anti_idno_loan_black=1</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"慕桂兰","id_card_no":"451227193608071755","phone":"15872366884"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{"user_name":"柏冬梅","id_card_no":"210801199411168941","phone":"13812986542"}</t>
         </is>
       </c>
     </row>
@@ -913,53 +999,62 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>anti_idno_loan_black</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>anti_idno_loan_black=0</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"user_name":"叔兰英","id_card_no":"430801193302213006","phone":"18797682536"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{"user_name":"南秀梅","id_card_no":"131026199706243130","phone":"15653333067"}</t>
         </is>
       </c>
     </row>
@@ -967,53 +1062,62 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>anti_tel_industy_black</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号比对信贷行业黑名单'</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>anti_tel_industy_black=1</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{"user_name":"南建国","id_card_no":"360302194606109553","phone":"13919711588"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>{"user_name":"邰帆","id_card_no":"330326198012035263","phone":"13036534754"}</t>
         </is>
       </c>
     </row>
@@ -1021,53 +1125,62 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>anti_tel_industy_black</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>anti_tel_industy_black=0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{"user_name":"跋淑兰","id_card_no":"321300199104036052","phone":"13765871382"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>{"user_name":"施荣","id_card_no":"45102719660323217X","phone":"14507096170"}</t>
         </is>
       </c>
     </row>
@@ -1075,53 +1188,62 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>anti_tel_P2P_black</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号比对信贷行业P2P黑名单'</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>anti_tel_P2P_black=1</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{"user_name":"别岩","id_card_no":"370700196402274936","phone":"13596740402"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>{"user_name":"漆琴","id_card_no":"130733194908220445","phone":"15615477234"}</t>
         </is>
       </c>
     </row>
@@ -1129,53 +1251,62 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>anti_tel_P2P_black</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>anti_tel_P2P_black=0</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{"user_name":"孙华","id_card_no":"410204198303118874","phone":"14539991485"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>{"user_name":"隆秀珍","id_card_no":"511703194702129359","phone":"18910235500"}</t>
         </is>
       </c>
     </row>
@@ -1183,53 +1314,62 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>anti_tel_lost_black</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号比对信贷行业失联黑名单'</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>anti_tel_lost_black=1</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{"user_name":"黎琴","id_card_no":"210701197005213749","phone":"13553510233"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>{"user_name":"安欢","id_card_no":"510501194812298028","phone":"13562743233"}</t>
         </is>
       </c>
     </row>
@@ -1237,53 +1377,62 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>anti_tel_lost_black</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>anti_tel_lost_black=0</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{"user_name":"阳楠","id_card_no":"150421199309048852","phone":"13087433770"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>{"user_name":"殷桂芝","id_card_no":"610624194704177513","phone":"13149199215"}</t>
         </is>
       </c>
     </row>
@@ -1291,53 +1440,62 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>anti_tel_fraud_black</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号比对信贷行业欺诈黑名单'</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>anti_tel_fraud_black=1</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{"user_name":"石楠","id_card_no":"622925195108281948","phone":"13940264940"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>{"user_name":"羿浩","id_card_no":"610628199508122302","phone":"13283032567"}</t>
         </is>
       </c>
     </row>
@@ -1345,53 +1503,62 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>anti_tel_fraud_black</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>anti_tel_fraud_black=0</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{"user_name":"庄旭","id_card_no":"350122195307115723","phone":"18530518129"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>{"user_name":"羊玉梅","id_card_no":"650107199312012660","phone":"15954518304"}</t>
         </is>
       </c>
     </row>
@@ -1399,53 +1566,62 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>anti_tel_small_no</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号比对通信小号名单'</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>anti_tel_small_no=1</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{"user_name":"邱俊","id_card_no":"41070019651128700X","phone":"18880826719"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>{"user_name":"赫秀英","id_card_no":"130721198809236671","phone":"18230424394"}</t>
         </is>
       </c>
     </row>
@@ -1453,53 +1629,62 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>anti_tel_small_no</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>anti_tel_small_no=0</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{"user_name":"夹丽华","id_card_no":"640100196504167341","phone":"13576534799"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{"user_name":"柳玉英","id_card_no":"360203199703079185","phone":"13115448305"}</t>
         </is>
       </c>
     </row>
@@ -1507,53 +1692,62 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>anti_idno_court_execu</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证比对法院执行名单'</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>anti_idno_court_execu=1</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{"user_name":"惠桂兰","id_card_no":"450326194901044572","phone":"13325875299"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>{"user_name":"淳洋","id_card_no":"450503197508288917","phone":"15233936352"}</t>
         </is>
       </c>
     </row>
@@ -1561,53 +1755,62 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>anti_idno_court_execu</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>anti_idno_court_execu=0</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{"user_name":"益俊","id_card_no":"330205194009046193","phone":"15981996883"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{"user_name":"牧坤","id_card_no":"350424193611102230","phone":"15652134425"}</t>
         </is>
       </c>
     </row>
@@ -1615,53 +1818,62 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>anti_idno_court_closure</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证比对法院结案名单'</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>anti_idno_court_closure=1</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{"user_name":"薄辉","id_card_no":"370404194410161704","phone":"15341350411"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>{"user_name":"郁亮","id_card_no":"140930198711048479","phone":"13819299738"}</t>
         </is>
       </c>
     </row>
@@ -1669,53 +1881,62 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>anti_idno_court_closure</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>anti_idno_court_closure=0</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{"user_name":"匡帅","id_card_no":"430623195112265282","phone":"14500679271"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>{"user_name":"弓玉珍","id_card_no":"130324195002082943","phone":"13610910396"}</t>
         </is>
       </c>
     </row>
@@ -1723,53 +1944,62 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>anti_idno_court_break_faith</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证比对法院失信名单'</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>anti_idno_court_break_faith=1</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{"user_name":"劳小红","id_card_no":"230126196510289764","phone":"13276051742"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>{"user_name":"漆雪","id_card_no":"542229198101127201","phone":"13494130625"}</t>
         </is>
       </c>
     </row>
@@ -1777,53 +2007,62 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>anti_idno_court_break_faith</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>anti_idno_court_break_faith=0</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{"user_name":"易桂花","id_card_no":"34080019331005772X","phone":"13615908283"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>{"user_name":"羊秀兰","id_card_no":"542400196205314422","phone":"13799173829"}</t>
         </is>
       </c>
     </row>
@@ -1831,53 +2070,62 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>anti_idno_legal_break_faith</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证比对法人失信名单'</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>anti_idno_legal_break_faith=1</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{"user_name":"阙凯","id_card_no":"310109193309153689","phone":"15779164769"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>{"user_name":"蒋敏","id_card_no":"652925197408200737","phone":"13829808269"}</t>
         </is>
       </c>
     </row>
@@ -1885,53 +2133,62 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>anti_idno_legal_break_faith</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]=</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>anti_idno_legal_break_faith=0</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>{"user_name":"台玉珍","id_card_no":"210727198710190763","phone":"18137288453"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>{"user_name":"养鑫","id_card_no":"350200196202133652","phone":"15797335046"}</t>
         </is>
       </c>
     </row>
@@ -1939,50 +2196,63 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>anti_idno_apply_1m</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证一个月内多头申请过多';
-info_anti_fraud_rule.rule_memo[0-0]=='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+          <t>anti_idno_apply_1m=5</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>5</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{"user_name":"冶秀荣","id_card_no":"532823194609110392","phone":"13560821886"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>{"user_name":"叔慧","id_card_no":"610427195301319874","phone":"18239156412"}</t>
         </is>
       </c>
     </row>
@@ -1990,50 +2260,63 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>anti_idno_apply_3m</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证三个月内多头申请过多';
 info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+          <t>anti_idno_apply_3m=5</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{"user_name":"督丽娟","id_card_no":"520121196407086667","phone":"18774451754"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>{"user_name":"滑亮","id_card_no":"141028197408028411","phone":"14528577906"}</t>
         </is>
       </c>
     </row>
@@ -2041,50 +2324,63 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>anti_tel_apply_1m</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号一个月内多头申请过多';
 info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+          <t>anti_tel_apply_1m=5</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>5</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>{"user_name":"侯秀梅","id_card_no":"450921194201126703","phone":"18748035903"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>{"user_name":"宗凤兰","id_card_no":"511922193504146786","phone":"18935920066"}</t>
         </is>
       </c>
     </row>
@@ -2092,50 +2388,63 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>anti_tel_apply_3m</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号三个月内多头申请过多';
 info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+          <t>anti_tel_apply_3m=5</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>5</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{"user_name":"桑桂荣","id_card_no":"22240619790925354X","phone":"13566308436"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>{"user_name":"束瑜","id_card_no":"640323199206209370","phone":"13904136197"}</t>
         </is>
       </c>
     </row>
@@ -2143,50 +2452,63 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>anti_idno_apply_3d</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证三天内多头申请过多';
 info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+          <t>anti_idno_apply_3d=5</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>5</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{"user_name":"东玲","id_card_no":"360926193509019299","phone":"15888109192"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>{"user_name":"微阳","id_card_no":"440404193509274761","phone":"18581095988"}</t>
         </is>
       </c>
     </row>
@@ -2194,50 +2516,63 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>anti_idno_apply_7d</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='身份证七天内多头申请过多';
 info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+          <t>anti_idno_apply_7d=5</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>5</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>{"user_name":"扶秀兰","id_card_no":"622924199205196739","phone":"18118656068"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>{"user_name":"荣小红","id_card_no":"360821199801142921","phone":"15515860194"}</t>
         </is>
       </c>
     </row>
@@ -2245,50 +2580,63 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>anti_tel_apply_3d</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号三天内多头申请过多';
 info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+          <t>anti_tel_apply_3d=5</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>{"user_name":"仰春梅","id_card_no":"510623199105176669","phone":"13458394048"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>{"user_name":"殴晨","id_card_no":"450721199503146031","phone":"15886861694"}</t>
         </is>
       </c>
     </row>
@@ -2296,50 +2644,63 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>12001</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>anti_tel_apply_7d</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
-</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>info_anti_fraud_strategy.anti_fraud_id;
-info_anti_fraud_strategy.anti_fraud_rule_id;
-info_anti_fraud_strategy.strategy_name[0]=''</t>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]=''</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>info_anti_fraud_rule.anti_fraud_rule_id;
 info_anti_fraud_rule.rule_name[0-0]='手机号七天内多头申请过多';
 info_anti_fraud_rule.rule_memo[0-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1'</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+          <t>anti_tel_apply_7d=5</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>5</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{"user_name":"于强","id_card_no":"21148119980420721X","phone":"14729246412"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>{"user_name":"楚丹","id_card_no":"653130198508280562","phone":"14588360436"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-12001_result.xlsx
+++ b/tests/data/output/一级测试用例-12001_result.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"慎淑兰","id_card_no":"130927199202177568","phone":"13300762512"}</t>
+          <t>{"user_name":"隆秀英","id_card_no":"42070019540619890X","phone":"13394801954"}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"公桂香","id_card_no":"130622195407263826","phone":"15821092797"}</t>
+          <t>{"user_name":"房桂荣","id_card_no":"361121197603265334","phone":"18133899725"}</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"容兰英","id_card_no":"420202198605058407","phone":"15513153210"}</t>
+          <t>{"user_name":"丘云","id_card_no":"371721193206089265","phone":"13640987026"}</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"任利","id_card_no":"320585199503291628","phone":"18732570712"}</t>
+          <t>{"user_name":"皇欢","id_card_no":"360101198005233840","phone":"13035142425"}</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"太秀英","id_card_no":"14080119810913107X","phone":"18933049427"}</t>
+          <t>{"user_name":"席瑞","id_card_no":"320703195003166546","phone":"13873555867"}</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"郎阳","id_card_no":"340500194106047338","phone":"18799026115"}</t>
+          <t>{"user_name":"蒙浩","id_card_no":"440825199309302394","phone":"15838697465"}</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"巴磊","id_card_no":"320601196206157304","phone":"18110497637"}</t>
+          <t>{"user_name":"诸洁","id_card_no":"411501198405129791","phone":"14567480877"}</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"戚丽丽","id_card_no":"230101199309215743","phone":"13478747985"}</t>
+          <t>{"user_name":"闫想","id_card_no":"623027195203143062","phone":"15550206983"}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"柏冬梅","id_card_no":"210801199411168941","phone":"13812986542"}</t>
+          <t>{"user_name":"百坤","id_card_no":"610628196004063528","phone":"18518879986"}</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"南秀梅","id_card_no":"131026199706243130","phone":"15653333067"}</t>
+          <t>{"user_name":"宫建国","id_card_no":"621221193903283105","phone":"13827956614"}</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"邰帆","id_card_no":"330326198012035263","phone":"13036534754"}</t>
+          <t>{"user_name":"雍玉珍","id_card_no":"370830193012120501","phone":"15667370876"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"施荣","id_card_no":"45102719660323217X","phone":"14507096170"}</t>
+          <t>{"user_name":"皇莹","id_card_no":"511325195103091396","phone":"13965253936"}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"漆琴","id_card_no":"130733194908220445","phone":"15615477234"}</t>
+          <t>{"user_name":"白楠","id_card_no":"230804195503090349","phone":"18747036777"}</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"隆秀珍","id_card_no":"511703194702129359","phone":"18910235500"}</t>
+          <t>{"user_name":"孙凤兰","id_card_no":"620302199509168048","phone":"15046679236"}</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"安欢","id_card_no":"510501194812298028","phone":"13562743233"}</t>
+          <t>{"user_name":"孙兵","id_card_no":"51132519380928051X","phone":"13967257479"}</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"殷桂芝","id_card_no":"610624194704177513","phone":"13149199215"}</t>
+          <t>{"user_name":"汪杰","id_card_no":"130183198703172821","phone":"13121485505"}</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"羿浩","id_card_no":"610628199508122302","phone":"13283032567"}</t>
+          <t>{"user_name":"鄢桂花","id_card_no":"620423197102012402","phone":"13207430829"}</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"羊玉梅","id_card_no":"650107199312012660","phone":"15954518304"}</t>
+          <t>{"user_name":"延桂花","id_card_no":"220422197708091175","phone":"14728122595"}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"赫秀英","id_card_no":"130721198809236671","phone":"18230424394"}</t>
+          <t>{"user_name":"司磊","id_card_no":"341225196205263475","phone":"18707107113"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"柳玉英","id_card_no":"360203199703079185","phone":"13115448305"}</t>
+          <t>{"user_name":"庚慧","id_card_no":"513232193203044467","phone":"18713946510"}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"淳洋","id_card_no":"450503197508288917","phone":"15233936352"}</t>
+          <t>{"user_name":"家玉梅","id_card_no":"330185193104124980","phone":"13603863633"}</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"牧坤","id_card_no":"350424193611102230","phone":"15652134425"}</t>
+          <t>{"user_name":"杜秀云","id_card_no":"21092219620810847X","phone":"18207220748"}</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"郁亮","id_card_no":"140930198711048479","phone":"13819299738"}</t>
+          <t>{"user_name":"林小红","id_card_no":"370601193712237329","phone":"15943225678"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"弓玉珍","id_card_no":"130324195002082943","phone":"13610910396"}</t>
+          <t>{"user_name":"华岩","id_card_no":"530102192912028956","phone":"15111697612"}</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"漆雪","id_card_no":"542229198101127201","phone":"13494130625"}</t>
+          <t>{"user_name":"闫欣","id_card_no":"220822196811099877","phone":"13311271198"}</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"羊秀兰","id_card_no":"542400196205314422","phone":"13799173829"}</t>
+          <t>{"user_name":"轩龙","id_card_no":"520221194511307323","phone":"13402047945"}</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"蒋敏","id_card_no":"652925197408200737","phone":"13829808269"}</t>
+          <t>{"user_name":"卫秀珍","id_card_no":"341523195601282335","phone":"14535198980"}</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"养鑫","id_card_no":"350200196202133652","phone":"15797335046"}</t>
+          <t>{"user_name":"巩娟","id_card_no":"441721194311113629","phone":"13754896800"}</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"叔慧","id_card_no":"610427195301319874","phone":"18239156412"}</t>
+          <t>{"user_name":"朱欣","id_card_no":"430623196211235075","phone":"13660265115"}</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"滑亮","id_card_no":"141028197408028411","phone":"14528577906"}</t>
+          <t>{"user_name":"马建国","id_card_no":"43072619460815595X","phone":"13806969856"}</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"宗凤兰","id_card_no":"511922193504146786","phone":"18935920066"}</t>
+          <t>{"user_name":"怀华","id_card_no":"54223219640904361X","phone":"15295331613"}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"束瑜","id_card_no":"640323199206209370","phone":"13904136197"}</t>
+          <t>{"user_name":"房超","id_card_no":"340506193609108466","phone":"15537317318"}</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"微阳","id_card_no":"440404193509274761","phone":"18581095988"}</t>
+          <t>{"user_name":"南丹丹","id_card_no":"360700194705090420","phone":"13858660910"}</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"荣小红","id_card_no":"360821199801142921","phone":"15515860194"}</t>
+          <t>{"user_name":"容秀荣","id_card_no":"652701199005157778","phone":"15819796707"}</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"殴晨","id_card_no":"450721199503146031","phone":"15886861694"}</t>
+          <t>{"user_name":"邵建平","id_card_no":"610524195102040770","phone":"15088853964"}</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"楚丹","id_card_no":"653130198508280562","phone":"14588360436"}</t>
+          <t>{"user_name":"东楠","id_card_no":"532523198910211370","phone":"18528800224"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-12001_result.xlsx
+++ b/tests/data/output/一级测试用例-12001_result.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"隆秀英","id_card_no":"42070019540619890X","phone":"13394801954"}</t>
+          <t>{"user_name":"和宇","id_card_no":"371400197108188227","phone":"15121371455"}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"房桂荣","id_card_no":"361121197603265334","phone":"18133899725"}</t>
+          <t>{"user_name":"毛建","id_card_no":"542600196412103098","phone":"14532551034"}</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"丘云","id_card_no":"371721193206089265","phone":"13640987026"}</t>
+          <t>{"user_name":"粱春梅","id_card_no":"431128195903069996","phone":"14535974509"}</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"皇欢","id_card_no":"360101198005233840","phone":"13035142425"}</t>
+          <t>{"user_name":"闵涛","id_card_no":"410201198102049412","phone":"13671268080"}</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"席瑞","id_card_no":"320703195003166546","phone":"13873555867"}</t>
+          <t>{"user_name":"东岩","id_card_no":"431124197301149546","phone":"13373409950"}</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"蒙浩","id_card_no":"440825199309302394","phone":"15838697465"}</t>
+          <t>{"user_name":"梅洁","id_card_no":"33050319951206992X","phone":"15807344711"}</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"诸洁","id_card_no":"411501198405129791","phone":"14567480877"}</t>
+          <t>{"user_name":"公欣","id_card_no":"530321200104303574","phone":"18834217702"}</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"闫想","id_card_no":"623027195203143062","phone":"15550206983"}</t>
+          <t>{"user_name":"富欣","id_card_no":"150122193209176438","phone":"14591839268"}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"百坤","id_card_no":"610628196004063528","phone":"18518879986"}</t>
+          <t>{"user_name":"雕柳","id_card_no":"370634193911095332","phone":"13417364969"}</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"宫建国","id_card_no":"621221193903283105","phone":"13827956614"}</t>
+          <t>{"user_name":"闻秀英","id_card_no":"36022219380613402X","phone":"13406265528"}</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"雍玉珍","id_card_no":"370830193012120501","phone":"15667370876"}</t>
+          <t>{"user_name":"巫琳","id_card_no":"141000199302136521","phone":"18515571575"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"皇莹","id_card_no":"511325195103091396","phone":"13965253936"}</t>
+          <t>{"user_name":"於坤","id_card_no":"440511194403221948","phone":"15050791007"}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"白楠","id_card_no":"230804195503090349","phone":"18747036777"}</t>
+          <t>{"user_name":"戎晶","id_card_no":"361028196503208310","phone":"15763531152"}</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"孙凤兰","id_card_no":"620302199509168048","phone":"15046679236"}</t>
+          <t>{"user_name":"梅莉","id_card_no":"330303194101073007","phone":"15507768186"}</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"孙兵","id_card_no":"51132519380928051X","phone":"13967257479"}</t>
+          <t>{"user_name":"毛凤兰","id_card_no":"211404192908120616","phone":"15804617745"}</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"汪杰","id_card_no":"130183198703172821","phone":"13121485505"}</t>
+          <t>{"user_name":"那雪","id_card_no":"220106197210297188","phone":"15577082813"}</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"鄢桂花","id_card_no":"620423197102012402","phone":"13207430829"}</t>
+          <t>{"user_name":"巩秀芳","id_card_no":"130109198402154132","phone":"14539287653"}</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"延桂花","id_card_no":"220422197708091175","phone":"14728122595"}</t>
+          <t>{"user_name":"韦雪","id_card_no":"500232197305115565","phone":"18936887080"}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"司磊","id_card_no":"341225196205263475","phone":"18707107113"}</t>
+          <t>{"user_name":"别柳","id_card_no":"513224194105275047","phone":"13289631589"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"庚慧","id_card_no":"513232193203044467","phone":"18713946510"}</t>
+          <t>{"user_name":"杨超","id_card_no":"62012219770707913X","phone":"13450791175"}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"家玉梅","id_card_no":"330185193104124980","phone":"13603863633"}</t>
+          <t>{"user_name":"鲍小红","id_card_no":"150301199511226703","phone":"13564065454"}</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"杜秀云","id_card_no":"21092219620810847X","phone":"18207220748"}</t>
+          <t>{"user_name":"诸岩","id_card_no":"320324199812116205","phone":"13701125094"}</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"林小红","id_card_no":"370601193712237329","phone":"15943225678"}</t>
+          <t>{"user_name":"西淑华","id_card_no":"230306193208245973","phone":"14553383187"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"华岩","id_card_no":"530102192912028956","phone":"15111697612"}</t>
+          <t>{"user_name":"栾浩","id_card_no":"350921199306113828","phone":"15277211995"}</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"闫欣","id_card_no":"220822196811099877","phone":"13311271198"}</t>
+          <t>{"user_name":"刁淑华","id_card_no":"500242193605061532","phone":"15727146894"}</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"轩龙","id_card_no":"520221194511307323","phone":"13402047945"}</t>
+          <t>{"user_name":"扶建平","id_card_no":"532622196712081448","phone":"18168173127"}</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"卫秀珍","id_card_no":"341523195601282335","phone":"14535198980"}</t>
+          <t>{"user_name":"张淑珍","id_card_no":"41088319880518735X","phone":"13558200659"}</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"巩娟","id_card_no":"441721194311113629","phone":"13754896800"}</t>
+          <t>{"user_name":"居倩","id_card_no":"620403195506240386","phone":"13140842283"}</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"朱欣","id_card_no":"430623196211235075","phone":"13660265115"}</t>
+          <t>{"user_name":"施建华","id_card_no":"210727193307226292","phone":"13358074148"}</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"马建国","id_card_no":"43072619460815595X","phone":"13806969856"}</t>
+          <t>{"user_name":"薛倩","id_card_no":"370613195503288415","phone":"18129216192"}</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"怀华","id_card_no":"54223219640904361X","phone":"15295331613"}</t>
+          <t>{"user_name":"冶萍","id_card_no":"331102195901180773","phone":"13314112479"}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"房超","id_card_no":"340506193609108466","phone":"15537317318"}</t>
+          <t>{"user_name":"叔娟","id_card_no":"540101196202275956","phone":"15103132220"}</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"南丹丹","id_card_no":"360700194705090420","phone":"13858660910"}</t>
+          <t>{"user_name":"水秀芳","id_card_no":"430725193811264106","phone":"15812365851"}</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"容秀荣","id_card_no":"652701199005157778","phone":"15819796707"}</t>
+          <t>{"user_name":"人红梅","id_card_no":"130202194702265064","phone":"13503239603"}</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"邵建平","id_card_no":"610524195102040770","phone":"15088853964"}</t>
+          <t>{"user_name":"文林","id_card_no":"510522193301102625","phone":"18652055120"}</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"东楠","id_card_no":"532523198910211370","phone":"18528800224"}</t>
+          <t>{"user_name":"葛红霞","id_card_no":"360281194409020680","phone":"15573640669"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-12001_result.xlsx
+++ b/tests/data/output/一级测试用例-12001_result.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"和宇","id_card_no":"371400197108188227","phone":"15121371455"}</t>
+          <t>{"user_name":"蔡明","id_card_no":"222405196512216811","phone":"13715755783"}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"毛建","id_card_no":"542600196412103098","phone":"14532551034"}</t>
+          <t>{"user_name":"漆霞","id_card_no":"620900194908011862","phone":"15267238801"}</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"粱春梅","id_card_no":"431128195903069996","phone":"14535974509"}</t>
+          <t>{"user_name":"水龙","id_card_no":"500100198211213947","phone":"13379646619"}</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"闵涛","id_card_no":"410201198102049412","phone":"13671268080"}</t>
+          <t>{"user_name":"余龙","id_card_no":"430722193103259999","phone":"18850070478"}</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"东岩","id_card_no":"431124197301149546","phone":"13373409950"}</t>
+          <t>{"user_name":"屠雷","id_card_no":"341024196508229779","phone":"14586328455"}</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"梅洁","id_card_no":"33050319951206992X","phone":"15807344711"}</t>
+          <t>{"user_name":"赖静","id_card_no":"130724199707130802","phone":"14500701407"}</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"公欣","id_card_no":"530321200104303574","phone":"18834217702"}</t>
+          <t>{"user_name":"宦小红","id_card_no":"610728193503122811","phone":"13787306104"}</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"富欣","id_card_no":"150122193209176438","phone":"14591839268"}</t>
+          <t>{"user_name":"红超","id_card_no":"370481193102277658","phone":"15580252095"}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"雕柳","id_card_no":"370634193911095332","phone":"13417364969"}</t>
+          <t>{"user_name":"宰淑华","id_card_no":"533124193404194101","phone":"15314799533"}</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"闻秀英","id_card_no":"36022219380613402X","phone":"13406265528"}</t>
+          <t>{"user_name":"法阳","id_card_no":"451224197803173342","phone":"18030058494"}</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"巫琳","id_card_no":"141000199302136521","phone":"18515571575"}</t>
+          <t>{"user_name":"印海燕","id_card_no":"511100198610119352","phone":"13119492621"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"於坤","id_card_no":"440511194403221948","phone":"15050791007"}</t>
+          <t>{"user_name":"钟凯","id_card_no":"450202197812200630","phone":"14503939670"}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"戎晶","id_card_no":"361028196503208310","phone":"15763531152"}</t>
+          <t>{"user_name":"公成","id_card_no":"22040119511031509X","phone":"18168155847"}</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"梅莉","id_card_no":"330303194101073007","phone":"15507768186"}</t>
+          <t>{"user_name":"仰俊","id_card_no":"33112419540613927X","phone":"18602818256"}</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"毛凤兰","id_card_no":"211404192908120616","phone":"15804617745"}</t>
+          <t>{"user_name":"廉兰英","id_card_no":"310105196503229040","phone":"13121642984"}</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"那雪","id_card_no":"220106197210297188","phone":"15577082813"}</t>
+          <t>{"user_name":"谷桂荣","id_card_no":"130732194902089443","phone":"13564953167"}</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"巩秀芳","id_card_no":"130109198402154132","phone":"14539287653"}</t>
+          <t>{"user_name":"蓬秀兰","id_card_no":"469007197203221920","phone":"13593885233"}</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"韦雪","id_card_no":"500232197305115565","phone":"18936887080"}</t>
+          <t>{"user_name":"阙云","id_card_no":"211223198811238234","phone":"18073429825"}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"别柳","id_card_no":"513224194105275047","phone":"13289631589"}</t>
+          <t>{"user_name":"聂想","id_card_no":"152202199606228042","phone":"13737623155"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"杨超","id_card_no":"62012219770707913X","phone":"13450791175"}</t>
+          <t>{"user_name":"荀金凤","id_card_no":"610427199005057572","phone":"14720845601"}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"鲍小红","id_card_no":"150301199511226703","phone":"13564065454"}</t>
+          <t>{"user_name":"何淑兰","id_card_no":"130133197001040754","phone":"15678778861"}</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"诸岩","id_card_no":"320324199812116205","phone":"13701125094"}</t>
+          <t>{"user_name":"司霞","id_card_no":"532622199005140422","phone":"15102151792"}</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"西淑华","id_card_no":"230306193208245973","phone":"14553383187"}</t>
+          <t>{"user_name":"南倩","id_card_no":"13070519930309878X","phone":"18740628286"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"栾浩","id_card_no":"350921199306113828","phone":"15277211995"}</t>
+          <t>{"user_name":"咸飞","id_card_no":"231100196302258733","phone":"13692381694"}</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"刁淑华","id_card_no":"500242193605061532","phone":"15727146894"}</t>
+          <t>{"user_name":"司建华","id_card_no":"140581194110038451","phone":"15583878929"}</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"扶建平","id_card_no":"532622196712081448","phone":"18168173127"}</t>
+          <t>{"user_name":"向阳","id_card_no":"610116197411097778","phone":"13898097916"}</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"张淑珍","id_card_no":"41088319880518735X","phone":"13558200659"}</t>
+          <t>{"user_name":"寇冬梅","id_card_no":"210224198609175896","phone":"13474497576"}</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"居倩","id_card_no":"620403195506240386","phone":"13140842283"}</t>
+          <t>{"user_name":"屠彬","id_card_no":"130526200105200698","phone":"15249590643"}</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"施建华","id_card_no":"210727193307226292","phone":"13358074148"}</t>
+          <t>{"user_name":"巢艳","id_card_no":"640401199710016196","phone":"18559010645"}</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"薛倩","id_card_no":"370613195503288415","phone":"18129216192"}</t>
+          <t>{"user_name":"祁强","id_card_no":"430112195301138649","phone":"13570670185"}</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"冶萍","id_card_no":"331102195901180773","phone":"13314112479"}</t>
+          <t>{"user_name":"鱼琳","id_card_no":"430100194207302457","phone":"13328498820"}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"叔娟","id_card_no":"540101196202275956","phone":"15103132220"}</t>
+          <t>{"user_name":"管秀英","id_card_no":"511304194108209676","phone":"13403670122"}</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"水秀芳","id_card_no":"430725193811264106","phone":"15812365851"}</t>
+          <t>{"user_name":"宫欣","id_card_no":"350925196703223408","phone":"13124168450"}</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"人红梅","id_card_no":"130202194702265064","phone":"13503239603"}</t>
+          <t>{"user_name":"程斌","id_card_no":"341700196709139267","phone":"15728729255"}</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"文林","id_card_no":"510522193301102625","phone":"18652055120"}</t>
+          <t>{"user_name":"左志强","id_card_no":"511113198408148741","phone":"18875557530"}</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"葛红霞","id_card_no":"360281194409020680","phone":"15573640669"}</t>
+          <t>{"user_name":"訾桂珍","id_card_no":"420502196012187059","phone":"13557447543"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-12001_result.xlsx
+++ b/tests/data/output/一级测试用例-12001_result.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"蔡明","id_card_no":"222405196512216811","phone":"13715755783"}</t>
+          <t>{"user_name":"封文","id_card_no":"220581199207198972","phone":"13575271268"}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"漆霞","id_card_no":"620900194908011862","phone":"15267238801"}</t>
+          <t>{"user_name":"左明","id_card_no":"610522194302026204","phone":"13572534716"}</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"水龙","id_card_no":"500100198211213947","phone":"13379646619"}</t>
+          <t>{"user_name":"谷玲","id_card_no":"320903193709216033","phone":"14503238772"}</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"余龙","id_card_no":"430722193103259999","phone":"18850070478"}</t>
+          <t>{"user_name":"符梅","id_card_no":"370901195402043735","phone":"15084821114"}</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"屠雷","id_card_no":"341024196508229779","phone":"14586328455"}</t>
+          <t>{"user_name":"訾倩","id_card_no":"210201195706035125","phone":"13885615221"}</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"赖静","id_card_no":"130724199707130802","phone":"14500701407"}</t>
+          <t>{"user_name":"卞建华","id_card_no":"330822192912307863","phone":"18203436427"}</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"宦小红","id_card_no":"610728193503122811","phone":"13787306104"}</t>
+          <t>{"user_name":"堵帆","id_card_no":"130421195005285902","phone":"13313841199"}</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"红超","id_card_no":"370481193102277658","phone":"15580252095"}</t>
+          <t>{"user_name":"田桂英","id_card_no":"331127194809223761","phone":"13352184228"}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"宰淑华","id_card_no":"533124193404194101","phone":"15314799533"}</t>
+          <t>{"user_name":"公磊","id_card_no":"130502199503058803","phone":"15840661890"}</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"法阳","id_card_no":"451224197803173342","phone":"18030058494"}</t>
+          <t>{"user_name":"包佳","id_card_no":"230822199008303846","phone":"15683963322"}</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"印海燕","id_card_no":"511100198610119352","phone":"13119492621"}</t>
+          <t>{"user_name":"祁芳","id_card_no":"451402193902151522","phone":"18735003093"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"钟凯","id_card_no":"450202197812200630","phone":"14503939670"}</t>
+          <t>{"user_name":"计玲","id_card_no":"540227193506198457","phone":"13100821211"}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"公成","id_card_no":"22040119511031509X","phone":"18168155847"}</t>
+          <t>{"user_name":"咎燕","id_card_no":"450902198007090734","phone":"13886701079"}</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"仰俊","id_card_no":"33112419540613927X","phone":"18602818256"}</t>
+          <t>{"user_name":"鄂秀荣","id_card_no":"411103195712084404","phone":"15787430887"}</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"廉兰英","id_card_no":"310105196503229040","phone":"13121642984"}</t>
+          <t>{"user_name":"葛岩","id_card_no":"370827195108098450","phone":"15308734700"}</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"谷桂荣","id_card_no":"130732194902089443","phone":"13564953167"}</t>
+          <t>{"user_name":"生帆","id_card_no":"530111195012319272","phone":"13393032170"}</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"蓬秀兰","id_card_no":"469007197203221920","phone":"13593885233"}</t>
+          <t>{"user_name":"汤秀英","id_card_no":"431381193612252268","phone":"14791028609"}</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"阙云","id_card_no":"211223198811238234","phone":"18073429825"}</t>
+          <t>{"user_name":"咸畅","id_card_no":"360000194511308905","phone":"15137748057"}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"聂想","id_card_no":"152202199606228042","phone":"13737623155"}</t>
+          <t>{"user_name":"阚霞","id_card_no":"440112194712319812","phone":"15394424459"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"荀金凤","id_card_no":"610427199005057572","phone":"14720845601"}</t>
+          <t>{"user_name":"仰桂英","id_card_no":"350802198508022204","phone":"18570853640"}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"何淑兰","id_card_no":"130133197001040754","phone":"15678778861"}</t>
+          <t>{"user_name":"毛刚","id_card_no":"140826193807062969","phone":"13725551188"}</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"司霞","id_card_no":"532622199005140422","phone":"15102151792"}</t>
+          <t>{"user_name":"沙军","id_card_no":"44011119470727510X","phone":"13934963744"}</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"南倩","id_card_no":"13070519930309878X","phone":"18740628286"}</t>
+          <t>{"user_name":"殴凤兰","id_card_no":"41172619690809469X","phone":"13174892806"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"咸飞","id_card_no":"231100196302258733","phone":"13692381694"}</t>
+          <t>{"user_name":"甄鑫","id_card_no":"520330197211118155","phone":"13023758975"}</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"司建华","id_card_no":"140581194110038451","phone":"15583878929"}</t>
+          <t>{"user_name":"廉丹","id_card_no":"630225194511212456","phone":"13067303642"}</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"向阳","id_card_no":"610116197411097778","phone":"13898097916"}</t>
+          <t>{"user_name":"花瑜","id_card_no":"511922193207081752","phone":"14713140148"}</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"寇冬梅","id_card_no":"210224198609175896","phone":"13474497576"}</t>
+          <t>{"user_name":"卓玉梅","id_card_no":"513329195108057979","phone":"18831018706"}</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"屠彬","id_card_no":"130526200105200698","phone":"15249590643"}</t>
+          <t>{"user_name":"空佳","id_card_no":"150925197601142612","phone":"18673385842"}</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"巢艳","id_card_no":"640401199710016196","phone":"18559010645"}</t>
+          <t>{"user_name":"王婷婷","id_card_no":"530322197010239569","phone":"13840250254"}</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"祁强","id_card_no":"430112195301138649","phone":"13570670185"}</t>
+          <t>{"user_name":"鄂明","id_card_no":"542232193610047723","phone":"13200695278"}</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"鱼琳","id_card_no":"430100194207302457","phone":"13328498820"}</t>
+          <t>{"user_name":"昌婷婷","id_card_no":"141101199003205285","phone":"18513671282"}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"管秀英","id_card_no":"511304194108209676","phone":"13403670122"}</t>
+          <t>{"user_name":"亓超","id_card_no":"360800195505065028","phone":"14744823589"}</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"宫欣","id_card_no":"350925196703223408","phone":"13124168450"}</t>
+          <t>{"user_name":"浦秀华","id_card_no":"532525196609305080","phone":"18069658725"}</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"程斌","id_card_no":"341700196709139267","phone":"15728729255"}</t>
+          <t>{"user_name":"谯杨","id_card_no":"621121195805033894","phone":"13784985616"}</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"左志强","id_card_no":"511113198408148741","phone":"18875557530"}</t>
+          <t>{"user_name":"仉伟","id_card_no":"320585198310263589","phone":"15100133258"}</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"訾桂珍","id_card_no":"420502196012187059","phone":"13557447543"}</t>
+          <t>{"user_name":"柯健","id_card_no":"371722195804248161","phone":"13574301524"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-12001_result.xlsx
+++ b/tests/data/output/一级测试用例-12001_result.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"封文","id_card_no":"220581199207198972","phone":"13575271268"}</t>
+          <t>{"user_name":"卜淑珍","id_card_no":"331003193303269411","phone":"13063544344"}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"左明","id_card_no":"610522194302026204","phone":"13572534716"}</t>
+          <t>{"user_name":"滑荣","id_card_no":"360426197603318640","phone":"15742437336"}</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"谷玲","id_card_no":"320903193709216033","phone":"14503238772"}</t>
+          <t>{"user_name":"微利","id_card_no":"130634199012046169","phone":"13656750586"}</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"符梅","id_card_no":"370901195402043735","phone":"15084821114"}</t>
+          <t>{"user_name":"却志强","id_card_no":"410481197005239511","phone":"15116062611"}</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"訾倩","id_card_no":"210201195706035125","phone":"13885615221"}</t>
+          <t>{"user_name":"索帅","id_card_no":"532326195907196434","phone":"13947230777"}</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"卞建华","id_card_no":"330822192912307863","phone":"18203436427"}</t>
+          <t>{"user_name":"司阳","id_card_no":"370301195203110090","phone":"18892836315"}</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"堵帆","id_card_no":"130421195005285902","phone":"13313841199"}</t>
+          <t>{"user_name":"丁建军","id_card_no":"610902199208017642","phone":"13273437981"}</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"田桂英","id_card_no":"331127194809223761","phone":"13352184228"}</t>
+          <t>{"user_name":"国洁","id_card_no":"371102198305057147","phone":"15919278865"}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"公磊","id_card_no":"130502199503058803","phone":"15840661890"}</t>
+          <t>{"user_name":"丘凤兰","id_card_no":"130404194604292687","phone":"18914602835"}</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"包佳","id_card_no":"230822199008303846","phone":"15683963322"}</t>
+          <t>{"user_name":"匡建","id_card_no":"330781194112212333","phone":"13964488103"}</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"祁芳","id_card_no":"451402193902151522","phone":"18735003093"}</t>
+          <t>{"user_name":"温晶","id_card_no":"430401199111164286","phone":"15838132267"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"计玲","id_card_no":"540227193506198457","phone":"13100821211"}</t>
+          <t>{"user_name":"贺桂芝","id_card_no":"13042919891217360X","phone":"13475882085"}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"咎燕","id_card_no":"450902198007090734","phone":"13886701079"}</t>
+          <t>{"user_name":"关琳","id_card_no":"510824193303129521","phone":"18155160104"}</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"鄂秀荣","id_card_no":"411103195712084404","phone":"15787430887"}</t>
+          <t>{"user_name":"法婷","id_card_no":"130131198610303638","phone":"15995911087"}</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"葛岩","id_card_no":"370827195108098450","phone":"15308734700"}</t>
+          <t>{"user_name":"尉玉梅","id_card_no":"54213319410705442X","phone":"14578151848"}</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"生帆","id_card_no":"530111195012319272","phone":"13393032170"}</t>
+          <t>{"user_name":"嵇帅","id_card_no":"653129197708167214","phone":"13339725940"}</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"汤秀英","id_card_no":"431381193612252268","phone":"14791028609"}</t>
+          <t>{"user_name":"劳桂荣","id_card_no":"632621198805121863","phone":"15008702397"}</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"咸畅","id_card_no":"360000194511308905","phone":"15137748057"}</t>
+          <t>{"user_name":"毋宁","id_card_no":"130628198312029430","phone":"18579488291"}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"阚霞","id_card_no":"440112194712319812","phone":"15394424459"}</t>
+          <t>{"user_name":"熊桂兰","id_card_no":"150000193605072397","phone":"15850260646"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"仰桂英","id_card_no":"350802198508022204","phone":"18570853640"}</t>
+          <t>{"user_name":"卢坤","id_card_no":"451424193606153732","phone":"15934226707"}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"毛刚","id_card_no":"140826193807062969","phone":"13725551188"}</t>
+          <t>{"user_name":"鱼桂珍","id_card_no":"341004193510030559","phone":"13307050546"}</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"沙军","id_card_no":"44011119470727510X","phone":"13934963744"}</t>
+          <t>{"user_name":"强帆","id_card_no":"430405199209234655","phone":"18273412897"}</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"殴凤兰","id_card_no":"41172619690809469X","phone":"13174892806"}</t>
+          <t>{"user_name":"苏红","id_card_no":"532500197709079348","phone":"15899699288"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"甄鑫","id_card_no":"520330197211118155","phone":"13023758975"}</t>
+          <t>{"user_name":"公建军","id_card_no":"63280019551217887X","phone":"15354612483"}</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"廉丹","id_card_no":"630225194511212456","phone":"13067303642"}</t>
+          <t>{"user_name":"艾峰","id_card_no":"140828198306100205","phone":"18594807406"}</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"花瑜","id_card_no":"511922193207081752","phone":"14713140148"}</t>
+          <t>{"user_name":"爱婷","id_card_no":"510904197807061522","phone":"15030087069"}</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"卓玉梅","id_card_no":"513329195108057979","phone":"18831018706"}</t>
+          <t>{"user_name":"裴文","id_card_no":"450305195709130422","phone":"13015194655"}</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"空佳","id_card_no":"150925197601142612","phone":"18673385842"}</t>
+          <t>{"user_name":"阳文","id_card_no":"530922194508252073","phone":"13631500916"}</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"王婷婷","id_card_no":"530322197010239569","phone":"13840250254"}</t>
+          <t>{"user_name":"麻浩","id_card_no":"610627199106200279","phone":"14505791046"}</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"鄂明","id_card_no":"542232193610047723","phone":"13200695278"}</t>
+          <t>{"user_name":"詹秀英","id_card_no":"410601196501212224","phone":"18295429394"}</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"昌婷婷","id_card_no":"141101199003205285","phone":"18513671282"}</t>
+          <t>{"user_name":"乐刚","id_card_no":"441721199401159359","phone":"18617282864"}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"亓超","id_card_no":"360800195505065028","phone":"14744823589"}</t>
+          <t>{"user_name":"蒋桂花","id_card_no":"430381195608166998","phone":"13851899300"}</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"浦秀华","id_card_no":"532525196609305080","phone":"18069658725"}</t>
+          <t>{"user_name":"戎淑英","id_card_no":"140221197205268728","phone":"15248841193"}</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"谯杨","id_card_no":"621121195805033894","phone":"13784985616"}</t>
+          <t>{"user_name":"耿桂珍","id_card_no":"130208199202142464","phone":"13882005791"}</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"仉伟","id_card_no":"320585198310263589","phone":"15100133258"}</t>
+          <t>{"user_name":"颛畅","id_card_no":"210114194504133976","phone":"18045585668"}</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"柯健","id_card_no":"371722195804248161","phone":"13574301524"}</t>
+          <t>{"user_name":"仉想","id_card_no":"152922194712217786","phone":"18230633078"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-12001_result.xlsx
+++ b/tests/data/output/一级测试用例-12001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"卜淑珍","id_card_no":"331003193303269411","phone":"13063544344"}</t>
+          <t>{"user_name":"琴建平","id_card_no":"130128195710187740","phone":"13238998491"}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"滑荣","id_card_no":"360426197603318640","phone":"15742437336"}</t>
+          <t>{"user_name":"东玉英","id_card_no":"310107196901147051","phone":"13845823633"}</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"微利","id_card_no":"130634199012046169","phone":"13656750586"}</t>
+          <t>{"user_name":"毕桂芳","id_card_no":"33072319411109444X","phone":"14518904336"}</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"却志强","id_card_no":"410481197005239511","phone":"15116062611"}</t>
+          <t>{"user_name":"利鹏","id_card_no":"150201199401083662","phone":"13498015401"}</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"索帅","id_card_no":"532326195907196434","phone":"13947230777"}</t>
+          <t>{"user_name":"良军","id_card_no":"710000197201207227","phone":"15191833846"}</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"司阳","id_card_no":"370301195203110090","phone":"18892836315"}</t>
+          <t>{"user_name":"裴欣","id_card_no":"371701198410204782","phone":"13308338051"}</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"丁建军","id_card_no":"610902199208017642","phone":"13273437981"}</t>
+          <t>{"user_name":"姚洋","id_card_no":"620402199504275819","phone":"15941614466"}</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"国洁","id_card_no":"371102198305057147","phone":"15919278865"}</t>
+          <t>{"user_name":"芮晨","id_card_no":"330825196408254915","phone":"15092990510"}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"丘凤兰","id_card_no":"130404194604292687","phone":"18914602835"}</t>
+          <t>{"user_name":"令鹏","id_card_no":"411327194801050836","phone":"15155532895"}</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"匡建","id_card_no":"330781194112212333","phone":"13964488103"}</t>
+          <t>{"user_name":"郦健","id_card_no":"500151198703253929","phone":"18618903692"}</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"温晶","id_card_no":"430401199111164286","phone":"15838132267"}</t>
+          <t>{"user_name":"邢军","id_card_no":"230901197103273635","phone":"15784804231"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"贺桂芝","id_card_no":"13042919891217360X","phone":"13475882085"}</t>
+          <t>{"user_name":"车梅","id_card_no":"37040019510604844X","phone":"15911267869"}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"关琳","id_card_no":"510824193303129521","phone":"18155160104"}</t>
+          <t>{"user_name":"孙丹丹","id_card_no":"411101193204132711","phone":"15807245479"}</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"法婷","id_card_no":"130131198610303638","phone":"15995911087"}</t>
+          <t>{"user_name":"公琳","id_card_no":"511681197606135393","phone":"18852174010"}</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"尉玉梅","id_card_no":"54213319410705442X","phone":"14578151848"}</t>
+          <t>{"user_name":"宰龙","id_card_no":"632621196208041954","phone":"15065437099"}</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"嵇帅","id_card_no":"653129197708167214","phone":"13339725940"}</t>
+          <t>{"user_name":"戎强","id_card_no":"340828199705236435","phone":"13116150975"}</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"劳桂荣","id_card_no":"632621198805121863","phone":"15008702397"}</t>
+          <t>{"user_name":"红莉","id_card_no":"512022193610244664","phone":"15943116080"}</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"毋宁","id_card_no":"130628198312029430","phone":"18579488291"}</t>
+          <t>{"user_name":"宫岩","id_card_no":"441701193108241246","phone":"18045139385"}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"熊桂兰","id_card_no":"150000193605072397","phone":"15850260646"}</t>
+          <t>{"user_name":"颜雷","id_card_no":"411728197203181715","phone":"13170630700"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"卢坤","id_card_no":"451424193606153732","phone":"15934226707"}</t>
+          <t>{"user_name":"慕璐","id_card_no":"510000193205259264","phone":"14555979043"}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"鱼桂珍","id_card_no":"341004193510030559","phone":"13307050546"}</t>
+          <t>{"user_name":"弓洁","id_card_no":"150124196202138099","phone":"13464127584"}</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"强帆","id_card_no":"430405199209234655","phone":"18273412897"}</t>
+          <t>{"user_name":"郭琴","id_card_no":"341124199601238505","phone":"18046387643"}</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"苏红","id_card_no":"532500197709079348","phone":"15899699288"}</t>
+          <t>{"user_name":"南浩","id_card_no":"330502194210105885","phone":"14570371224"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"公建军","id_card_no":"63280019551217887X","phone":"15354612483"}</t>
+          <t>{"user_name":"谢丽丽","id_card_no":"430511196808122371","phone":"15259420617"}</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"艾峰","id_card_no":"140828198306100205","phone":"18594807406"}</t>
+          <t>{"user_name":"熊瑜","id_card_no":"340601199202170103","phone":"13001387810"}</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"爱婷","id_card_no":"510904197807061522","phone":"15030087069"}</t>
+          <t>{"user_name":"华云","id_card_no":"231121198112283912","phone":"13801617436"}</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"裴文","id_card_no":"450305195709130422","phone":"13015194655"}</t>
+          <t>{"user_name":"文建平","id_card_no":"653130195506262869","phone":"18264860486"}</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"阳文","id_card_no":"530922194508252073","phone":"13631500916"}</t>
+          <t>{"user_name":"朱玉兰","id_card_no":"321301194507235252","phone":"18558967843"}</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"麻浩","id_card_no":"610627199106200279","phone":"14505791046"}</t>
+          <t>{"user_name":"曾秀梅","id_card_no":"341122199709259903","phone":"15279321353"}</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"詹秀英","id_card_no":"410601196501212224","phone":"18295429394"}</t>
+          <t>{"user_name":"司雷","id_card_no":"460204198403099753","phone":"13481116871"}</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"乐刚","id_card_no":"441721199401159359","phone":"18617282864"}</t>
+          <t>{"user_name":"能莹","id_card_no":"371725198102201003","phone":"18154963757"}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"蒋桂花","id_card_no":"430381195608166998","phone":"13851899300"}</t>
+          <t>{"user_name":"贾秀英","id_card_no":"350900199012016924","phone":"15546637598"}</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"戎淑英","id_card_no":"140221197205268728","phone":"15248841193"}</t>
+          <t>{"user_name":"甄强","id_card_no":"330282197910183410","phone":"18177512062"}</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"耿桂珍","id_card_no":"130208199202142464","phone":"13882005791"}</t>
+          <t>{"user_name":"刘建军","id_card_no":"530300197108237619","phone":"18505989994"}</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"颛畅","id_card_no":"210114194504133976","phone":"18045585668"}</t>
+          <t>{"user_name":"冶丽","id_card_no":"350421193908251270","phone":"13949367667"}</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,137 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"仉想","id_card_no":"152922194712217786","phone":"18230633078"}</t>
+          <t>{"user_name":"司红梅","id_card_no":"152530196801021248","phone":"15384992957"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>anti_idno_court_closure</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]='黑名单'; info_anti_fraud_strategy.strategy_name[1]='多头借贷'</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对法院结案名单'; info_anti_fraud_rule.rule_memo[0-0]=;  info_anti_fraud_rule.rule_id[0-0]='123'; 
+info_anti_fraud_rule.rule_name[1-0]='身份证一个月内多头申请过多'; info_anti_fraud_rule.rule_memo[1-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1';  info_anti_fraud_rule.rule_id[1-0]='125'</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>anti_idno_court_closure=1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>{"user_name":"钦桂香","id_card_no":"230422197607195591","phone":"13147202454"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12001</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>anti_idno_apply_1m</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_anti_fraud.anti_fraud_id
+</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_strategy.anti_fraud_id;
+info_anti_fraud_strategy.anti_fraud_rule_id;
+info_anti_fraud_strategy.strategy_name[0]='黑名单'; info_anti_fraud_strategy.strategy_name[1]='多头借贷'</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>info_anti_fraud_rule.anti_fraud_rule_id;
+info_anti_fraud_rule.rule_name[0-0]='身份证比对法院结案名单'; 
+info_anti_fraud_rule.rule_memo[0-0]=;  
+info_anti_fraud_rule.rule_id[0-0]='123';
+info_anti_fraud_rule.rule_name[1-0]='身份证一个月内多头申请过多'; info_anti_fraud_rule.rule_memo[1-0]='总数:5,其它:3,持牌消费金融:1,现金借贷:1';  info_anti_fraud_rule.rule_id[1-0]='125'</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>anti_idno_apply_1m=5</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>{"user_name":"季建军","id_card_no":"640401196905170229","phone":"15637617243"}</t>
         </is>
       </c>
     </row>
